--- a/biology/Médecine/Syndrome_du_banquet/Syndrome_du_banquet.xlsx
+++ b/biology/Médecine/Syndrome_du_banquet/Syndrome_du_banquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome du banquet se manifeste lorsqu'une personne a des difficultés spécifiques à entendre au milieu d'une foule, tout en entendant sans problème dans le silence.
 Ce symptôme, particulièrement délicat à détecter, serait dû à une atteinte de l'oreille interne (lésion de la cochlée)[réf. souhaitée]. Ce trouble de démasquage de la parole peut être dû à une perte de sélectivité fréquentielle, à une altération de la perception de la structure fine de l'enveloppe temporelle de la parole[réf. souhaitée] ou à un déficit d'inhibition latente. Ce n'est pas une perte tonale (dB) et ne peut donc pas être compensé par une simple amplification sonore.
